--- a/concrete_case/cc_payload_none.xlsx
+++ b/concrete_case/cc_payload_none.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,400 +1023,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CC-8-1-1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>主车从300m远处，以限速巡航驶向静止目标车，目标车在平直路 (平直路)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>sedan</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>平直路</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1）初速度0kph
-2）与主车同车道；
-3）在主车前方400m处，平直路上；</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车刹停在目标车后方的距离合理，在保证安全的前提下，也不能过大；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>CC-11-1-1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (平直路)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>sedan</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>平直路</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>CC-11-1-2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (700m_curve)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>sedan</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>curve</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>CC-11-1-3</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_uphill)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>sedan</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>uphill</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>CC-11-1-4</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CC</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>目标车从侧后方高速cutin后减速。目标车从120kph减速至40kph，减速度-3mpss，相对主车距离40m。主车以限速行驶并响应 (3%_downhill)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>sunny</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>80kph</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>sedan</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>downhill</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>初始速度80或100kph</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1）初速度120kph
-2）与主车相邻车道
-3）在目标车后方100m</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>/</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>1）超越本车30m时，目标车cutin；
-2）cutin后以1mps减速度，从120减速到40kph；</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1）主车能够正确响应目标车，对有入侵本车轨迹的目标能提前预判；
-2）主车应当及时发现目标并减速，减速不能太早或过晚；
-3）主车减速过程应当平稳，无过大过急的减速度，或加减速反复的现象；
-4）主车最终能与目标车重新达到跟车稳态；
-5）主车在与目标车达到稳态前允许有一定超调距离和响应时间，距离不可过小有安全风险；</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
